--- a/TradingPairs_all.xlsx
+++ b/TradingPairs_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B423"/>
+  <dimension ref="A1:B623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TURBO</t>
+          <t>COS</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FIL</t>
+          <t>BTS</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>STARL</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BONE</t>
+          <t>OKDOT2</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MLK</t>
+          <t>GOG</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KP3R</t>
+          <t>OSMO</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAITAMA</t>
+          <t>NYM</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>IMX</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MDT</t>
+          <t>UMA</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>POLYDOGE</t>
+          <t>CETUS</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>IOTX</t>
+          <t>QTCON</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HNT</t>
+          <t>IRIS</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>XTZ</t>
+          <t>DYDX</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>UMA</t>
+          <t>XEC</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FLOW</t>
+          <t>PLS</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SWFTC</t>
+          <t>ARDR</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ARDR</t>
+          <t>OP</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>OCEAN</t>
+          <t>ONE</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FAME</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MBL</t>
+          <t>INJ</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FLM</t>
+          <t>QSP</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NEAR</t>
+          <t>TONE</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>JUV</t>
+          <t>TVK</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ERN</t>
+          <t>BABYDOGE</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DORA</t>
+          <t>ADX</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ORDI</t>
+          <t>DGB</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AAVE</t>
+          <t>SOLVE</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRB</t>
+          <t>AMP</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ACS</t>
+          <t>STG</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>RIO</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SOLVE</t>
+          <t>OMN</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>STC</t>
+          <t>GAS</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>MASK</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PNK</t>
+          <t>THETA</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CGL</t>
+          <t>MRST</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>STORJ</t>
+          <t>EDU</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>GODS</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MITH</t>
+          <t>CBK</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>RLC</t>
+          <t>TOMO</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FOR</t>
+          <t>FLUX</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GALA</t>
+          <t>LTO</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>HFT</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>LOON</t>
+          <t>HOOK</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GRS</t>
+          <t>QUICK</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>AERGO</t>
+          <t>ENJ</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>SFP</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>GMT</t>
+          <t>PLA</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>EM</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CEL</t>
+          <t>RNDR</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>OGN</t>
+          <t>ONG</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ALGO</t>
+          <t>BLZ</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>STRAX</t>
+          <t>COVER</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>XETA</t>
+          <t>PORTO</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AXS</t>
+          <t>AUDIO</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>USDT</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>HPO</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>FRONT</t>
+          <t>RAD</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>REP</t>
+          <t>RAY</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>XEC</t>
+          <t>HIFI</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>LTC</t>
+          <t>MTL</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>DENT</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SXP</t>
+          <t>AIDOGE</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>BCH</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>WING</t>
+          <t>KINE</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>OMI</t>
+          <t>LOON</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>LING</t>
+          <t>DODO</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AFC</t>
+          <t>ZBC</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FSN</t>
+          <t>PSTAKE</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>INJ</t>
+          <t>STMX</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ARB</t>
+          <t>XRP</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DHT</t>
+          <t>SUI</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>LOOM</t>
+          <t>BLOK</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ICX</t>
+          <t>ACH</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>YFI</t>
+          <t>BONE</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TOWN</t>
+          <t>PERP</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BTM</t>
+          <t>SKL</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>OAS</t>
+          <t>CHESS</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FXS</t>
+          <t>CFX</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FORTH</t>
+          <t>FIL</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>POLYX</t>
+          <t>MKR</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ASTR</t>
+          <t>SANTOS</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ILV</t>
+          <t>NCT</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CSPR</t>
+          <t>RON</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SNT</t>
+          <t>RSR</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>VALUE</t>
+          <t>QTUM</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DCR</t>
+          <t>LOKA</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>AZY</t>
+          <t>KAN</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ALPHA</t>
+          <t>OAX</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>XETA</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ELF</t>
+          <t>TAMA</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>PRQ</t>
+          <t>GTC</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>PLS</t>
+          <t>AURORA</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MENGO</t>
+          <t>VSYS</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>WXT</t>
+          <t>FIRO</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>PNG</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TAKI</t>
+          <t>NKN</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>HBAR</t>
+          <t>AXL</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>EM</t>
+          <t>AVT</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>JFI</t>
+          <t>IQ</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PSG</t>
+          <t>ACM</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>LEASH</t>
+          <t>DAR</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TUP</t>
+          <t>TAKI</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CETUS</t>
+          <t>AUCTION</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>RAY</t>
+          <t>MANA</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>APIX</t>
+          <t>BAND</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>RAD</t>
+          <t>DAD</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>RIO</t>
+          <t>LCX</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>BABYDOGE</t>
+          <t>TORN</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>EURT</t>
+          <t>DOGE</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>XEM</t>
+          <t>SD</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DAWN</t>
+          <t>XAUT</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>OBSR</t>
+          <t>KEY</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>OKT</t>
+          <t>SXP</t>
         </is>
       </c>
     </row>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ZKS</t>
+          <t>WOO</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>BETH</t>
+          <t>GRS</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>RPL</t>
+          <t>SYLO</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>OM</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CONV</t>
+          <t>CELO</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>AUCTION</t>
+          <t>STC</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SKL</t>
+          <t>HIGH</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>API3</t>
+          <t>LON</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TRA</t>
+          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SUN</t>
+          <t>WCFG</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>KCAL</t>
+          <t>KLAY</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MYRIA</t>
+          <t>KAVA</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SNX</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CEEK</t>
+          <t>NEAR</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MXC</t>
+          <t>GNO</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MRST</t>
+          <t>SPELL</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>TROY</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MANA</t>
+          <t>VITE</t>
         </is>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>DNT</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>RDNT</t>
+          <t>POLYX</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>POLS</t>
+          <t>DAI</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ARG</t>
+          <t>DREP</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>LRC</t>
+          <t>QOM</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>RLY</t>
+          <t>MYRIA</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CHZ</t>
+          <t>MOVR</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>BAR</t>
+          <t>DF</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>QOM</t>
+          <t>OCEAN</t>
         </is>
       </c>
     </row>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>LSK</t>
+          <t>TRAC</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>NFT</t>
+          <t>DDX</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>BLOK</t>
+          <t>CVC</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TFUEL</t>
+          <t>LOOM</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>QTCON</t>
+          <t>CGL</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>FODL</t>
+          <t>OMI</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NEO</t>
+          <t>BETA</t>
         </is>
       </c>
     </row>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>HUNT</t>
+          <t>VTHO</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ONE</t>
+          <t>BAL</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>RSR</t>
+          <t>USDT</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>PHA</t>
+          <t>PSG</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>AST</t>
+          <t>XVG</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>IGU</t>
+          <t>RIF</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>WSB</t>
+          <t>WBTC</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TRX</t>
+          <t>REI</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>COVER</t>
+          <t>MED</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>QKC</t>
+          <t>FLM</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ORBS</t>
+          <t>MOC</t>
         </is>
       </c>
     </row>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ARPA</t>
+          <t>COMP</t>
         </is>
       </c>
     </row>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CHR</t>
+          <t>FTM</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>OKDOT1</t>
+          <t>GEAR</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>JOE</t>
+          <t>MC</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>KCASH</t>
+          <t>BORING</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ENS</t>
+          <t>KDA</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>BRWL</t>
+          <t>RLY</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TON</t>
+          <t>DHT</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>DAD</t>
+          <t>SHPING</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ELF</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>LITH</t>
+          <t>FIS</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>THG</t>
+          <t>PROS</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>KISHU</t>
+          <t>XPR</t>
         </is>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>AVAX</t>
+          <t>JUP</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>DOT</t>
+          <t>FODL</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>SHIB</t>
+          <t>HIVE</t>
         </is>
       </c>
     </row>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>BNT</t>
+          <t>API3</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>HIFI</t>
+          <t>RUNE</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>PNK</t>
         </is>
       </c>
     </row>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>FTM</t>
+          <t>GF</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>CAPO</t>
+          <t>ALICE</t>
         </is>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>IMX</t>
+          <t>AQT</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>MOVR</t>
+          <t>DASH</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>VELO</t>
+          <t>CEL</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ZEC</t>
+          <t>ZKS</t>
         </is>
       </c>
     </row>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>DOGE</t>
+          <t>LDO</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>MIOTA</t>
+          <t>WTC</t>
         </is>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ANKR</t>
+          <t>GYEN</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>UNI</t>
+          <t>FITFI</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>EGLD</t>
+          <t>PUNDIX</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>BORA</t>
+          <t>TAI</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ONT</t>
+          <t>OG</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>MINA</t>
+          <t>XMR</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TAMA</t>
+          <t>MULTI</t>
         </is>
       </c>
     </row>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>HBD</t>
+          <t>NMR</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>CITY</t>
         </is>
       </c>
     </row>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>CITY</t>
+          <t>SUN</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ZIL</t>
+          <t>STORJ</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>CLV</t>
+          <t>RLC</t>
         </is>
       </c>
     </row>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>XLM</t>
+          <t>AGIX</t>
         </is>
       </c>
     </row>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>GFT</t>
+          <t>LOOKS</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>LAT</t>
+          <t>CORE</t>
         </is>
       </c>
     </row>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>FLOKI</t>
+          <t>DCR</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>TAI</t>
+          <t>MSOL</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>KLAY</t>
+          <t>STRK</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>THETA</t>
+          <t>EFI</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>PSTAKE</t>
+          <t>GLMR</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>CVP</t>
+          <t>EOS</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ALCX</t>
+          <t>BUSD</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>USDC</t>
+          <t>WNXM</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>DOSE</t>
+          <t>GM</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>MVL</t>
+          <t>MLN</t>
         </is>
       </c>
     </row>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>OGN</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>DENT</t>
+          <t>MXT</t>
         </is>
       </c>
     </row>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>BICO</t>
+          <t>TKO</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>AIOZ</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>OP</t>
+          <t>WIFI</t>
         </is>
       </c>
     </row>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>DAO</t>
+          <t>IGU</t>
         </is>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>AQT</t>
+          <t>JUV</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>ETC</t>
         </is>
       </c>
     </row>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>APM</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>ASR</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>REN</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>MED</t>
+          <t>BETH</t>
         </is>
       </c>
     </row>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>XCH</t>
+          <t>KOL</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MTL</t>
+          <t>DYP</t>
         </is>
       </c>
     </row>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>HIVE</t>
+          <t>WGRT</t>
         </is>
       </c>
     </row>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>BAND</t>
+          <t>UPP</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>NYM</t>
+          <t>MATIC</t>
         </is>
       </c>
     </row>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>JST</t>
+          <t>ZIL</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>FLR</t>
+          <t>CVP</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>RNDR</t>
+          <t>AAVE</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>RON</t>
+          <t>AKITA</t>
         </is>
       </c>
     </row>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ATOM</t>
+          <t>LUNA</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>HEGIC</t>
         </is>
       </c>
     </row>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>YFII</t>
+          <t>SAMO</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>KOL</t>
+          <t>LAZIO</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>XAUT</t>
+          <t>LING</t>
         </is>
       </c>
     </row>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>BLUR</t>
+          <t>NEXO</t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>QTUM</t>
+          <t>SSV</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>1INCH</t>
+          <t>HARD</t>
         </is>
       </c>
     </row>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>GARI</t>
+          <t>FUN</t>
         </is>
       </c>
     </row>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>BAT</t>
+          <t>ELON</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>REI</t>
+          <t>DEP</t>
         </is>
       </c>
     </row>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>CTC</t>
+          <t>MAV</t>
         </is>
       </c>
     </row>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ETHW</t>
+          <t>STEEM</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>PUNDIX</t>
+          <t>LQTY</t>
         </is>
       </c>
     </row>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>BZZ</t>
+          <t>SSWP</t>
         </is>
       </c>
     </row>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>VAL</t>
+          <t>ALGO</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>WAVES</t>
+          <t>CRV</t>
         </is>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>MKR</t>
+          <t>TIME</t>
         </is>
       </c>
     </row>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>FITFI</t>
+          <t>OMG</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>CTSI</t>
+          <t>WNCG</t>
         </is>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>WNCG</t>
+          <t>INTER</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>LDN</t>
+          <t>XTZ</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>GHST</t>
+          <t>RARI</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>MILO</t>
+          <t>TOWN</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>SNX</t>
+          <t>MLK</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>SSV</t>
+          <t>TON</t>
         </is>
       </c>
     </row>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>BTT</t>
+          <t>AXS</t>
         </is>
       </c>
     </row>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>SAND</t>
+          <t>DIMO</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>LUNC</t>
+          <t>THG</t>
         </is>
       </c>
     </row>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>SAMO</t>
+          <t>RFUEL</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>LDO</t>
+          <t>CELR</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>XNO</t>
+          <t>RACA</t>
         </is>
       </c>
     </row>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>CRV</t>
+          <t>KMD</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>ONIT</t>
+          <t>POND</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>SUKU</t>
         </is>
       </c>
     </row>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>WIFI</t>
+          <t>WAXP</t>
         </is>
       </c>
     </row>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>SSWP</t>
+          <t>DOT</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>PCI</t>
+          <t>BFC</t>
         </is>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>OMG</t>
+          <t>SKEB</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>MARO</t>
+          <t>QNT</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>DOME</t>
+          <t>FXS</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>OXT</t>
+          <t>RBN</t>
         </is>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>UTK</t>
+          <t>MXC</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>BOBA</t>
         </is>
       </c>
     </row>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>DEP</t>
+          <t>MONA</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>WGRT</t>
+          <t>CONV</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>JFI</t>
         </is>
       </c>
     </row>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>CTXC</t>
+          <t>AFC</t>
         </is>
       </c>
     </row>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>CQT</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VALUE</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>ZRX</t>
+          <t>KNC</t>
         </is>
       </c>
     </row>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>UPP</t>
+          <t>ZEN</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>KAVA</t>
+          <t>HBAR</t>
         </is>
       </c>
     </row>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>XPR</t>
+          <t>BNX</t>
         </is>
       </c>
     </row>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>LHINU</t>
+          <t>ORBS</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>RVN</t>
+          <t>RSS3</t>
         </is>
       </c>
     </row>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>TRA</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>COTI</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>AHT</t>
+          <t>MARO</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>XRP</t>
+          <t>OOKI</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>MDT</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>ENJ</t>
+          <t>MIOTA</t>
         </is>
       </c>
     </row>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>OMN</t>
+          <t>YFI</t>
         </is>
       </c>
     </row>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>LPT</t>
+          <t>GOAL</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>CORE</t>
+          <t>GO</t>
         </is>
       </c>
     </row>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>YGG</t>
+          <t>EPX</t>
         </is>
       </c>
     </row>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>VET</t>
+          <t>OKB</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>VRA</t>
+          <t>TWT</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>INTER</t>
+          <t>KP3R</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>ELON</t>
+          <t>NULS</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>GRT</t>
+          <t>COMBO</t>
         </is>
       </c>
     </row>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>MLN</t>
+          <t>GHST</t>
         </is>
       </c>
     </row>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>SWEAT</t>
+          <t>SAITAMA</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>CHE</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>IOST</t>
+          <t>LTC</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>KINE</t>
+          <t>FARM</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>SUSHI</t>
+          <t>APT</t>
         </is>
       </c>
     </row>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>DYDX</t>
+          <t>KAR</t>
         </is>
       </c>
     </row>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>CBK</t>
+          <t>GUSD</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>TT</t>
+          <t>CHR</t>
         </is>
       </c>
     </row>
@@ -3556,7 +3556,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>RFUEL</t>
+          <t>KSM</t>
         </is>
       </c>
     </row>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>SSX</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>NULS</t>
+          <t>LDN</t>
         </is>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>ONG</t>
+          <t>ROSE</t>
         </is>
       </c>
     </row>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>WCFG</t>
+          <t>CTSI</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>UMEE</t>
+          <t>BTRST</t>
         </is>
       </c>
     </row>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>MXT</t>
+          <t>MUSE</t>
         </is>
       </c>
     </row>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>GODS</t>
+          <t>ONT</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>EC</t>
+          <t>LRC</t>
         </is>
       </c>
     </row>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>ADA</t>
+          <t>BIFI</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>ZEN</t>
+          <t>ASM</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>STPT</t>
+          <t>PIT</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>ACA</t>
+          <t>YFII</t>
         </is>
       </c>
     </row>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>KSM</t>
+          <t>INV</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>MOC</t>
+          <t>CTXC</t>
         </is>
       </c>
     </row>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>BSV</t>
+          <t>LEASH</t>
         </is>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>GAL</t>
+          <t>ARB</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>GTC</t>
+          <t>PRO</t>
         </is>
       </c>
     </row>
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>REN</t>
+          <t>TLM</t>
         </is>
       </c>
     </row>
@@ -3746,7 +3746,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>ORB</t>
+          <t>MDX</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>STRK</t>
+          <t>HNT</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>LET</t>
+          <t>AVAX</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>OKDOT2</t>
+          <t>CAKE</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>STARL</t>
+          <t>AVA</t>
         </is>
       </c>
     </row>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>RACA</t>
+          <t>SC</t>
         </is>
       </c>
     </row>
@@ -3806,7 +3806,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>SPELL</t>
+          <t>DEXE</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>NAP</t>
+          <t>ICX</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>LUNA</t>
+          <t>LINA</t>
         </is>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>BTC</t>
+          <t>KISHU</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>BORING</t>
+          <t>MINA</t>
         </is>
       </c>
     </row>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>PLA</t>
+          <t>HC</t>
         </is>
       </c>
     </row>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>FCT</t>
+          <t>REEF</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>BFC</t>
+          <t>VRA</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>DAI</t>
+          <t>REVV</t>
         </is>
       </c>
     </row>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>WBTC</t>
+          <t>KCAL</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>GMX</t>
+          <t>LITH</t>
         </is>
       </c>
     </row>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>VSYS</t>
+          <t>JOE</t>
         </is>
       </c>
     </row>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>LINK</t>
+          <t>ETHW</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>KAN</t>
+          <t>EC</t>
         </is>
       </c>
     </row>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>VELA</t>
+          <t>BNB</t>
         </is>
       </c>
     </row>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>MATIC</t>
+          <t>SUPER</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>USTC</t>
+          <t>EUROC</t>
         </is>
       </c>
     </row>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>DGB</t>
+          <t>SCRT</t>
         </is>
       </c>
     </row>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>CVC</t>
+          <t>DESO</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>BADGER</t>
+          <t>FORT</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>SRM</t>
+          <t>CSPR</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>FX</t>
+          <t>KONO</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>COMP</t>
+          <t>CVX</t>
         </is>
       </c>
     </row>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>GLMR</t>
+          <t>MEDIA</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>KAR</t>
+          <t>RARE</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>SIS</t>
+          <t>PEOPLE</t>
         </is>
       </c>
     </row>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>SSX</t>
+          <t>XVS</t>
         </is>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>RDNT</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>DKA</t>
+          <t>SBD</t>
         </is>
       </c>
     </row>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>AKITA</t>
+          <t>QI</t>
         </is>
       </c>
     </row>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>LQTY</t>
+          <t>LHINU</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>NMR</t>
+          <t>LSETH</t>
         </is>
       </c>
     </row>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>MASK</t>
+          <t>LINK</t>
         </is>
       </c>
     </row>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>CELR</t>
+          <t>CHZ</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>PROM</t>
+          <t>HOPR</t>
         </is>
       </c>
     </row>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>SKEB</t>
+          <t>VIDT</t>
         </is>
       </c>
     </row>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>PEOPLE</t>
+          <t>POLY</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>BTG</t>
+          <t>MENGO</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>CFX</t>
+          <t>AR</t>
         </is>
       </c>
     </row>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>APT</t>
+          <t>SAND</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>HEGIC</t>
+          <t>PIVX</t>
         </is>
       </c>
     </row>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>CQT</t>
+          <t>ANKR</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>ACH</t>
+          <t>RADAR</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>HPO</t>
+          <t>PYR</t>
         </is>
       </c>
     </row>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>PERP</t>
+          <t>WSB</t>
         </is>
       </c>
     </row>
@@ -4256,7 +4256,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>UMEE</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>LON</t>
+          <t>REQ</t>
         </is>
       </c>
     </row>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>POWR</t>
+          <t>VGX</t>
         </is>
       </c>
     </row>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>EFI</t>
+          <t>PRQ</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>ETH</t>
+          <t>MATH</t>
         </is>
       </c>
     </row>
@@ -4306,7 +4306,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>META</t>
+          <t>TRB</t>
         </is>
       </c>
     </row>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>PICKLE</t>
+          <t>AST</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>LOOKS</t>
+          <t>MNDE</t>
         </is>
       </c>
     </row>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>WOO</t>
+          <t>FX</t>
         </is>
       </c>
     </row>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>NKN</t>
+          <t>METIS</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>MOVEZ</t>
+          <t>PENDLE</t>
         </is>
       </c>
     </row>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>LAMB</t>
+          <t>MILO</t>
         </is>
       </c>
     </row>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>TUSD</t>
+          <t>CRE</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4386,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>KNC</t>
+          <t>RVN</t>
         </is>
       </c>
     </row>
@@ -4396,7 +4396,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>AUDIO</t>
+          <t>GST-SOL</t>
         </is>
       </c>
     </row>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>ZBC</t>
+          <t>USDC</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>XMR</t>
+          <t>POLYDOGE</t>
         </is>
       </c>
     </row>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>APE</t>
+          <t>FOR</t>
         </is>
       </c>
     </row>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>STEEM</t>
+          <t>PHA</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>RSS3</t>
+          <t>CRO</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>REVV</t>
+          <t>BORA</t>
         </is>
       </c>
     </row>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>WAXP</t>
+          <t>POWR</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>GEAR</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>GOAL</t>
+          <t>ZRX</t>
         </is>
       </c>
     </row>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>RADAR</t>
+          <t>HOT</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4506,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>SOS</t>
+          <t>LAMB</t>
         </is>
       </c>
     </row>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>GOG</t>
+          <t>ENS</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>ARG</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4536,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>AGLD</t>
+          <t>PHB</t>
         </is>
       </c>
     </row>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>KDA</t>
+          <t>COVAL</t>
         </is>
       </c>
     </row>
@@ -4556,7 +4556,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>RFR</t>
+          <t>ORDI</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>SLP</t>
+          <t>WAMPL</t>
         </is>
       </c>
     </row>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>METIS</t>
+          <t>EURT</t>
         </is>
       </c>
     </row>
@@ -4586,7 +4586,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>CELO</t>
+          <t>BICO</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>BCH</t>
+          <t>GFI</t>
         </is>
       </c>
     </row>
@@ -4606,7 +4606,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>ICP</t>
+          <t>STRAX</t>
         </is>
       </c>
     </row>
@@ -4616,7 +4616,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>KONO</t>
+          <t>UNI</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>AIDOGE</t>
+          <t>IOTX</t>
         </is>
       </c>
     </row>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>GF</t>
+          <t>FOX</t>
         </is>
       </c>
     </row>
@@ -4646,7 +4646,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>TURBO</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4656,2007 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>RFR</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>XNO</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>GALA</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>ASTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>LUNC</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>ELA</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>ORB</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>PNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>XCN</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>LIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>FIDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>DEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>FORTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>PCI</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>ALEPH</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>ADA</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>ILV</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>UNFI</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>ALPACA</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>TFUEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>DOME</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>FRONT</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>DUSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>ACS</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>CTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>HBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>BURGER</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>XCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>WBETH</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>FLR</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>TRX</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>BAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>GRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>SYN</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>BOND</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>MVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>SRM</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>ICP</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>VAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>SWFTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>WING</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>ARPA</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>JASMY</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>SWEAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>FSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>PAXG</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>BTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>DATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>DOCK</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>APIX</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>XYO</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>META</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>AHT</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>FLOKI</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>DAWN</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>BTG</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>ORN</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>ATOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>ACA</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>OKT</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>ATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>OKDOT1</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>MDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>XLM</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>APE</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>AGLD</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>BNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>WXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>WRX</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>TRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>BTM</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>ERN</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>ALPINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>CAPO</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>PICKLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>LEVER</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>SNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>GMX</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>AZY</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>OBSR</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>BLUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>CLV</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>GNS</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>MITH</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
           <t>MAGIC</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>VET</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>ZEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>IDEX</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>XEM</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>DAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>BSV</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>SNM</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>RPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>OAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>DOSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>APM</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>ORCA</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>GFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>VELO</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>TT</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>BAKE</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>LAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>LPT</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>NAP</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>ALCX</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>PROM</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>FET</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>STPT</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>INDEX</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>VOXEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>VELA</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>HUNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>TUP</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>SOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>BSW</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>CBETH</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>GARI</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>WAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>1INCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>MPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>FIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>SIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>VIB</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>557</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>CKB</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>SYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>DKA</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>MOVEZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>561</v>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>EGLD</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>562</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>MOB</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>GLM</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>SUSHI</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>PRIME</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>TUSD</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>DORA</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>NBT</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>AKRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>C98</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>BAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>AMB</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>CRPT</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>YGG</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>ONIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>UTK</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>IOST</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>BTT</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>MBOX</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>SPA</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>POLS</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>NEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>LET</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>KRL</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>WAVES</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>USTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>BADGER</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>UFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>NEO</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>PLU</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>FLOW</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>USDP</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>CEEK</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>BRWL</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>FCT</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>FAME</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>QKC</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>NFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>GAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>PERL</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>DEGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>BZZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>LSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>KCASH</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>CTX</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>AERGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>SHIB</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>JST</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>CTK</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>FTT</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>SOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>CREAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>BDOT</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>MCO2</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>OXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>BIT</t>
         </is>
       </c>
     </row>
